--- a/GlobalLandCove_ComputeChange_ExportTable_TableToExcel.xlsx
+++ b/GlobalLandCove_ComputeChange_ExportTable_TableToExcel.xlsx
@@ -500,107 +500,107 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Area 2001</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Area 2002</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Area 2003</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Area 2004</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Area 2005</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Area 2006</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Area 2007</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Area 2008</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Area 2009</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Area 2010</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Area 2011</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Area 2012</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Area 2013</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Area 2014</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Area 2015</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Area 2016</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Area 2017</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Area 2018</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Area 2019</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Area 2020</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Area 2000-2020</t>
+          <t>2000-2020</t>
         </is>
       </c>
     </row>
@@ -701,6 +701,9 @@
       <c r="AE2" t="n">
         <v>20.25</v>
       </c>
+      <c r="AF2" t="n">
+        <v>293.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -799,6 +802,9 @@
       <c r="AE3" t="n">
         <v>13.86</v>
       </c>
+      <c r="AF3" t="n">
+        <v>842.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -894,6 +900,9 @@
       <c r="AE4" t="n">
         <v>4.319999999999999</v>
       </c>
+      <c r="AF4" t="n">
+        <v>94.58999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -983,6 +992,9 @@
       <c r="AE5" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF5" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1039,6 +1051,9 @@
       <c r="AC6" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1140,6 +1155,9 @@
       <c r="AE7" t="n">
         <v>81.36</v>
       </c>
+      <c r="AF7" t="n">
+        <v>316.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1199,6 +1217,9 @@
       <c r="AD8" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1297,6 +1318,9 @@
       <c r="AE9" t="n">
         <v>85.67999999999999</v>
       </c>
+      <c r="AF9" t="n">
+        <v>1223.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AE10" t="n">
         <v>105.84</v>
       </c>
+      <c r="AF10" t="n">
+        <v>1270.98</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1493,6 +1520,9 @@
       <c r="AE11" t="n">
         <v>39.15</v>
       </c>
+      <c r="AF11" t="n">
+        <v>474.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1588,6 +1618,9 @@
       <c r="AE12" t="n">
         <v>3.51</v>
       </c>
+      <c r="AF12" t="n">
+        <v>66.06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1656,6 +1689,9 @@
       <c r="AD13" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF13" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1757,6 +1793,9 @@
       <c r="AE14" t="n">
         <v>38.52</v>
       </c>
+      <c r="AF14" t="n">
+        <v>100.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1840,6 +1879,9 @@
       <c r="AE15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF15" t="n">
+        <v>9.99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1905,6 +1947,9 @@
       <c r="Y16" t="n">
         <v>4.319999999999999</v>
       </c>
+      <c r="AF16" t="n">
+        <v>7.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1964,6 +2009,9 @@
       <c r="V17" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2062,6 +2110,9 @@
       <c r="AE18" t="n">
         <v>52.2</v>
       </c>
+      <c r="AF18" t="n">
+        <v>831.9599999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2160,6 +2211,9 @@
       <c r="AE19" t="n">
         <v>60.02999999999999</v>
       </c>
+      <c r="AF19" t="n">
+        <v>622.89</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2234,6 +2288,9 @@
       <c r="Y20" t="n">
         <v>38.34</v>
       </c>
+      <c r="AF20" t="n">
+        <v>155.43</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE21" t="n">
         <v>24.57</v>
       </c>
+      <c r="AF21" t="n">
+        <v>263.88</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2391,6 +2451,9 @@
       <c r="AE22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF22" t="n">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2489,6 +2552,9 @@
       <c r="AE23" t="n">
         <v>3.69</v>
       </c>
+      <c r="AF23" t="n">
+        <v>46.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2554,6 +2620,9 @@
       <c r="AD24" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.8999999999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2655,6 +2724,9 @@
       <c r="AE25" t="n">
         <v>24.39</v>
       </c>
+      <c r="AF25" t="n">
+        <v>101.88</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2711,6 +2783,9 @@
       <c r="AD26" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.8999999999999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2809,6 +2884,9 @@
       <c r="AE27" t="n">
         <v>17.01</v>
       </c>
+      <c r="AF27" t="n">
+        <v>4143.69</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2907,6 +2985,9 @@
       <c r="AE28" t="n">
         <v>36.36</v>
       </c>
+      <c r="AF28" t="n">
+        <v>3022.65</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2975,6 +3056,9 @@
       <c r="Y29" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF29" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3058,6 +3142,9 @@
       <c r="Y30" t="n">
         <v>398.88</v>
       </c>
+      <c r="AF30" t="n">
+        <v>7181.009999999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3156,6 +3243,9 @@
       <c r="AE31" t="n">
         <v>10.89</v>
       </c>
+      <c r="AF31" t="n">
+        <v>1233.54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3221,6 +3311,9 @@
       <c r="AE32" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF32" t="n">
+        <v>39.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3271,6 +3364,9 @@
       <c r="O33" t="n">
         <v>2.52</v>
       </c>
+      <c r="AF33" t="n">
+        <v>13.77</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AE34" t="n">
         <v>0.5399999999999999</v>
       </c>
+      <c r="AF34" t="n">
+        <v>1280.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3437,6 +3536,9 @@
       <c r="AE35" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF35" t="n">
+        <v>4.859999999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3538,6 +3640,9 @@
       <c r="AE36" t="n">
         <v>47.25</v>
       </c>
+      <c r="AF36" t="n">
+        <v>217.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3624,6 +3729,9 @@
       <c r="AE37" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF37" t="n">
+        <v>34.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6186,6 +6294,9 @@
       <c r="X64" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6284,6 +6395,9 @@
       <c r="AE65" t="n">
         <v>150.66</v>
       </c>
+      <c r="AF65" t="n">
+        <v>2358.72</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6373,6 +6487,9 @@
       <c r="AE66" t="n">
         <v>1.35</v>
       </c>
+      <c r="AF66" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6471,6 +6588,9 @@
       <c r="AE67" t="n">
         <v>39.51</v>
       </c>
+      <c r="AF67" t="n">
+        <v>386.01</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6569,6 +6689,9 @@
       <c r="AE68" t="n">
         <v>15.84</v>
       </c>
+      <c r="AF68" t="n">
+        <v>538.5599999999999</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6667,6 +6790,9 @@
       <c r="AE69" t="n">
         <v>28.17</v>
       </c>
+      <c r="AF69" t="n">
+        <v>477.36</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6765,6 +6891,9 @@
       <c r="AE70" t="n">
         <v>26.46</v>
       </c>
+      <c r="AF70" t="n">
+        <v>477.18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6863,6 +6992,9 @@
       <c r="AE71" t="n">
         <v>5.67</v>
       </c>
+      <c r="AF71" t="n">
+        <v>122.22</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6961,6 +7093,9 @@
       <c r="AE72" t="n">
         <v>214.83</v>
       </c>
+      <c r="AF72" t="n">
+        <v>2113.47</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7059,6 +7194,9 @@
       <c r="AE73" t="n">
         <v>41.66999999999999</v>
       </c>
+      <c r="AF73" t="n">
+        <v>724.9499999999999</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7157,6 +7295,9 @@
       <c r="AE74" t="n">
         <v>100.35</v>
       </c>
+      <c r="AF74" t="n">
+        <v>1241.91</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7258,6 +7399,9 @@
       <c r="AE75" t="n">
         <v>32.85</v>
       </c>
+      <c r="AF75" t="n">
+        <v>136.35</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7329,6 +7473,9 @@
       <c r="AE76" t="n">
         <v>0.8999999999999999</v>
       </c>
+      <c r="AF76" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7409,6 +7556,9 @@
       <c r="AE77" t="n">
         <v>9.99</v>
       </c>
+      <c r="AF77" t="n">
+        <v>69.39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7492,6 +7642,9 @@
       <c r="AE78" t="n">
         <v>5.76</v>
       </c>
+      <c r="AF78" t="n">
+        <v>32.67</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7572,6 +7725,9 @@
       <c r="AE79" t="n">
         <v>1.89</v>
       </c>
+      <c r="AF79" t="n">
+        <v>23.04</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7673,6 +7829,9 @@
       <c r="AE80" t="n">
         <v>53.28</v>
       </c>
+      <c r="AF80" t="n">
+        <v>300.87</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7738,6 +7897,9 @@
       <c r="AD81" t="n">
         <v>0.63</v>
       </c>
+      <c r="AF81" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7794,6 +7956,9 @@
       <c r="Y82" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF82" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7844,6 +8009,9 @@
       <c r="AE83" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF83" t="n">
+        <v>5.67</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7897,6 +8065,9 @@
       <c r="Y84" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF84" t="n">
+        <v>0.8099999999999999</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7944,6 +8115,9 @@
       <c r="AE85" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF85" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8036,6 +8210,9 @@
       <c r="AD86" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF86" t="n">
+        <v>45.54</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8134,6 +8311,9 @@
       <c r="AE87" t="n">
         <v>2.25</v>
       </c>
+      <c r="AF87" t="n">
+        <v>516.87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8178,6 +8358,9 @@
       <c r="L88" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF88" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8258,6 +8441,9 @@
       <c r="Y89" t="n">
         <v>20.61</v>
       </c>
+      <c r="AF89" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8344,6 +8530,9 @@
       <c r="AE90" t="n">
         <v>3.51</v>
       </c>
+      <c r="AF90" t="n">
+        <v>38.88</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8427,6 +8616,9 @@
       <c r="AA91" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF91" t="n">
+        <v>20.16</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8575,6 +8767,9 @@
       <c r="AE93" t="n">
         <v>6.75</v>
       </c>
+      <c r="AF93" t="n">
+        <v>63.27</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8637,6 +8832,9 @@
       <c r="S94" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF94" t="n">
+        <v>3.51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8705,6 +8903,9 @@
       <c r="AE95" t="n">
         <v>1.08</v>
       </c>
+      <c r="AF95" t="n">
+        <v>9.09</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8749,6 +8950,9 @@
       <c r="L96" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF96" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8814,6 +9018,9 @@
       <c r="AE97" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF97" t="n">
+        <v>5.13</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8912,6 +9119,9 @@
       <c r="AE98" t="n">
         <v>5.489999999999999</v>
       </c>
+      <c r="AF98" t="n">
+        <v>1953.72</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9010,6 +9220,9 @@
       <c r="AE99" t="n">
         <v>38.34</v>
       </c>
+      <c r="AF99" t="n">
+        <v>1275.12</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9093,6 +9306,9 @@
       <c r="Y100" t="n">
         <v>102.06</v>
       </c>
+      <c r="AF100" t="n">
+        <v>4800.51</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9191,6 +9407,9 @@
       <c r="AE101" t="n">
         <v>8.82</v>
       </c>
+      <c r="AF101" t="n">
+        <v>150.48</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9262,6 +9481,9 @@
       <c r="AE102" t="n">
         <v>1.08</v>
       </c>
+      <c r="AF102" t="n">
+        <v>13.05</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9360,6 +9582,9 @@
       <c r="AE103" t="n">
         <v>5.04</v>
       </c>
+      <c r="AF103" t="n">
+        <v>444.69</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -9461,6 +9686,9 @@
       <c r="AE104" t="n">
         <v>23.22</v>
       </c>
+      <c r="AF104" t="n">
+        <v>106.38</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9532,6 +9760,9 @@
       <c r="AE105" t="n">
         <v>1.53</v>
       </c>
+      <c r="AF105" t="n">
+        <v>5.22</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -9603,6 +9834,9 @@
       <c r="Y106" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF106" t="n">
+        <v>6.39</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9686,6 +9920,9 @@
       <c r="AE107" t="n">
         <v>1.8</v>
       </c>
+      <c r="AF107" t="n">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9745,6 +9982,9 @@
       <c r="Y108" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF108" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9792,6 +10032,9 @@
       <c r="AE109" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF109" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -9878,6 +10121,9 @@
       <c r="AE110" t="n">
         <v>2.97</v>
       </c>
+      <c r="AF110" t="n">
+        <v>47.43</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9976,6 +10222,9 @@
       <c r="AE111" t="n">
         <v>25.47</v>
       </c>
+      <c r="AF111" t="n">
+        <v>754.74</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10056,6 +10305,9 @@
       <c r="Y112" t="n">
         <v>25.65</v>
       </c>
+      <c r="AF112" t="n">
+        <v>47.7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10151,6 +10403,9 @@
       <c r="AE113" t="n">
         <v>4.859999999999999</v>
       </c>
+      <c r="AF113" t="n">
+        <v>140.76</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -10213,6 +10468,9 @@
       <c r="AE114" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF114" t="n">
+        <v>9.09</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -10299,6 +10557,9 @@
       <c r="AE115" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF115" t="n">
+        <v>11.88</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10400,6 +10661,9 @@
       <c r="AE116" t="n">
         <v>9.809999999999999</v>
       </c>
+      <c r="AF116" t="n">
+        <v>60.02999999999999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10447,6 +10711,9 @@
       <c r="AD117" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF117" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -10512,6 +10779,9 @@
       <c r="Y118" t="n">
         <v>1.35</v>
       </c>
+      <c r="AF118" t="n">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -10610,6 +10880,9 @@
       <c r="AE119" t="n">
         <v>21.6</v>
       </c>
+      <c r="AF119" t="n">
+        <v>348.21</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -10672,6 +10945,9 @@
       <c r="Y120" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF120" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10761,6 +11037,9 @@
       <c r="AE121" t="n">
         <v>3.24</v>
       </c>
+      <c r="AF121" t="n">
+        <v>20.52</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -10859,6 +11138,9 @@
       <c r="AE122" t="n">
         <v>3.15</v>
       </c>
+      <c r="AF122" t="n">
+        <v>82.17</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -10957,6 +11239,9 @@
       <c r="AE123" t="n">
         <v>4.05</v>
       </c>
+      <c r="AF123" t="n">
+        <v>69.56999999999999</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -11055,6 +11340,9 @@
       <c r="AE124" t="n">
         <v>11.16</v>
       </c>
+      <c r="AF124" t="n">
+        <v>155.16</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -11129,6 +11417,9 @@
       <c r="AD125" t="n">
         <v>1.08</v>
       </c>
+      <c r="AF125" t="n">
+        <v>4.59</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -11215,6 +11506,9 @@
       <c r="AE126" t="n">
         <v>6.569999999999999</v>
       </c>
+      <c r="AF126" t="n">
+        <v>24.21</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -11310,6 +11604,9 @@
       <c r="AE127" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF127" t="n">
+        <v>41.94</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -11408,6 +11705,9 @@
       <c r="AE128" t="n">
         <v>6.75</v>
       </c>
+      <c r="AF128" t="n">
+        <v>124.11</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -11494,6 +11794,9 @@
       <c r="AE129" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF129" t="n">
+        <v>25.47</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -11574,6 +11877,9 @@
       <c r="AE130" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF130" t="n">
+        <v>7.739999999999999</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -11642,6 +11948,9 @@
       <c r="AE131" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF131" t="n">
+        <v>0.8099999999999999</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -11722,6 +12031,9 @@
       <c r="AD132" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF132" t="n">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -11769,6 +12081,9 @@
       <c r="O133" t="n">
         <v>0.72</v>
       </c>
+      <c r="AF133" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -11867,6 +12182,9 @@
       <c r="AE134" t="n">
         <v>9.809999999999999</v>
       </c>
+      <c r="AF134" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -11965,6 +12283,9 @@
       <c r="AE135" t="n">
         <v>89.91</v>
       </c>
+      <c r="AF135" t="n">
+        <v>1673.82</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -12018,6 +12339,9 @@
       <c r="S136" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF136" t="n">
+        <v>2.79</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -12098,6 +12422,9 @@
       <c r="Y137" t="n">
         <v>14.85</v>
       </c>
+      <c r="AF137" t="n">
+        <v>38.07</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -12193,6 +12520,9 @@
       <c r="AE138" t="n">
         <v>1.35</v>
       </c>
+      <c r="AF138" t="n">
+        <v>107.01</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -12291,6 +12621,9 @@
       <c r="AE139" t="n">
         <v>11.34</v>
       </c>
+      <c r="AF139" t="n">
+        <v>106.47</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -12377,6 +12710,9 @@
       <c r="AD140" t="n">
         <v>0.5399999999999999</v>
       </c>
+      <c r="AF140" t="n">
+        <v>9.539999999999999</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -12478,6 +12814,9 @@
       <c r="AE141" t="n">
         <v>6.3</v>
       </c>
+      <c r="AF141" t="n">
+        <v>21.78</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -12576,6 +12915,9 @@
       <c r="AE142" t="n">
         <v>18.72</v>
       </c>
+      <c r="AF142" t="n">
+        <v>163.62</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -12650,6 +12992,9 @@
       <c r="X143" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF143" t="n">
+        <v>14.85</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -12724,6 +13069,9 @@
       <c r="W144" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF144" t="n">
+        <v>20.25</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -12801,6 +13149,9 @@
       <c r="Y145" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF145" t="n">
+        <v>14.13</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12881,6 +13232,9 @@
       <c r="Y146" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF146" t="n">
+        <v>5.13</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -12967,6 +13321,9 @@
       <c r="AE147" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF147" t="n">
+        <v>185.22</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -13053,6 +13410,9 @@
       <c r="AB148" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF148" t="n">
+        <v>44.19</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -13130,6 +13490,9 @@
       <c r="X149" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF149" t="n">
+        <v>13.68</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -13210,6 +13573,9 @@
       <c r="AD150" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF150" t="n">
+        <v>7.56</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -13296,6 +13662,9 @@
       <c r="AD151" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF151" t="n">
+        <v>9.27</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -13379,6 +13748,9 @@
       <c r="AD152" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF152" t="n">
+        <v>9.18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -13456,6 +13828,9 @@
       <c r="AC153" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF153" t="n">
+        <v>7.649999999999999</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13518,6 +13893,9 @@
       <c r="T154" t="n">
         <v>1.89</v>
       </c>
+      <c r="AF154" t="n">
+        <v>4.68</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -13601,6 +13979,9 @@
       <c r="AB155" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF155" t="n">
+        <v>76.22999999999999</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -13699,6 +14080,9 @@
       <c r="AE156" t="n">
         <v>2.25</v>
       </c>
+      <c r="AF156" t="n">
+        <v>139.14</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -13797,6 +14181,9 @@
       <c r="AE157" t="n">
         <v>1.17</v>
       </c>
+      <c r="AF157" t="n">
+        <v>218.34</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -13886,6 +14273,9 @@
       <c r="AE158" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF158" t="n">
+        <v>8.459999999999999</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -13981,6 +14371,9 @@
       <c r="AE159" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF159" t="n">
+        <v>95.22</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -14083,7 +14476,7 @@
         <v>2213417.52</v>
       </c>
       <c r="AF160" t="n">
-        <v>1152209.79</v>
+        <v>2135707.92</v>
       </c>
     </row>
   </sheetData>
